--- a/medicine/Œil et vue/Adam_Zamenhof/Adam_Zamenhof.xlsx
+++ b/medicine/Œil et vue/Adam_Zamenhof/Adam_Zamenhof.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adam Zamenhof (11 juin 1888 - 1940) est un ophtalmologue et espérantiste polonais.
 </t>
@@ -513,10 +525,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance
-Adam Zamenhof nait le 11 juin 1888 à Varsovie, alors dans l’Empire russe[1]. Son père est Louis-Lazare Zamenhof, ophtalmologue  et initiateur de l’espéranto, une langue à vocation internationale[1]. Sa mère est Klara Zamenhof, ardente promotrice de l’espéranto[1].
-Mort
-Lorsque les nazis envahissent la Pologne, Adam Zamenhof est arrêté et fusillé[1].
+          <t>Enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adam Zamenhof nait le 11 juin 1888 à Varsovie, alors dans l’Empire russe. Son père est Louis-Lazare Zamenhof, ophtalmologue  et initiateur de l’espéranto, une langue à vocation internationale. Sa mère est Klara Zamenhof, ardente promotrice de l’espéranto.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adam_Zamenhof</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adam_Zamenhof</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsque les nazis envahissent la Pologne, Adam Zamenhof est arrêté et fusillé.
 </t>
         </is>
       </c>
